--- a/pruebas/Caso_de_prueba_12_Registrar_cuenta_de_usuario.xlsx
+++ b/pruebas/Caso_de_prueba_12_Registrar_cuenta_de_usuario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\`\Desktop\MicroBlog\pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDRES\Documents\GitHub\ingSoft2017\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Procedimiento de Prueba: Registrar usuario</t>
   </si>
@@ -80,66 +80,51 @@
 Contraseña:”vacio”</t>
   </si>
   <si>
-    <t>muestra el aviso en pantalla de que
-Falta contraseña y apellido</t>
-  </si>
-  <si>
-    <t>Comprobar que se registre de manera correcta un 
-Usuario con caracteres especiales</t>
-  </si>
-  <si>
     <t>1- Ingresar a la pantalla de registro en dos ventanas/pestañas.</t>
   </si>
   <si>
-    <t>2- Ingresar datos requeridos en dos ventanas/pestañas.</t>
-  </si>
-  <si>
     <t>3- Presionar botón registrarse en dos ventanas/pestañas.</t>
   </si>
   <si>
     <t>Comprobar que se impida registrar dos veces al mismo usuario.</t>
   </si>
   <si>
-    <t>Usuario1:test
+    <t>Cartel de error “Usuario ya registrado”</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>Muestra el aviso en pantalla que faltan datos</t>
+  </si>
+  <si>
+    <t>2- Ingresar mismos datos requeridos en dos ventanas/pestañas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario1:test
 Nombre1:test
 Apellido1:uno
 Correo1:test@microblogg.com
-Contraseña1:1234</t>
-  </si>
-  <si>
-    <t>Cartel de error “Usuario ya registrado”</t>
-  </si>
-  <si>
-    <t>Usuario2:test
+Contraseña1:1234
+-------------------------------
+Usuario2:test
 Nombre2:test
 Apellido2:uno
 Correo2:test@microblogg.com
-Contraseña2:1234</t>
-  </si>
-  <si>
-    <t>Usuario:test0@ok
-Nombre:test
-Apellido:”vacio”
-Correo:test@microblogg.com
-Contraseña:12345</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>12.4</t>
+Contraseña:1234
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -258,16 +243,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -592,62 +577,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -671,7 +656,7 @@
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -689,7 +674,7 @@
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -701,31 +686,23 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>0</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -734,105 +711,95 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/pruebas/Caso_de_prueba_12_Registrar_cuenta_de_usuario.xlsx
+++ b/pruebas/Caso_de_prueba_12_Registrar_cuenta_de_usuario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Procedimiento de Prueba: Registrar usuario</t>
   </si>
@@ -80,12 +80,6 @@
 Contraseña:”vacio”</t>
   </si>
   <si>
-    <t>1- Ingresar a la pantalla de registro en dos ventanas/pestañas.</t>
-  </si>
-  <si>
-    <t>3- Presionar botón registrarse en dos ventanas/pestañas.</t>
-  </si>
-  <si>
     <t>Comprobar que se impida registrar dos veces al mismo usuario.</t>
   </si>
   <si>
@@ -104,15 +98,26 @@
     <t>Muestra el aviso en pantalla que faltan datos</t>
   </si>
   <si>
-    <t>2- Ingresar mismos datos requeridos en dos ventanas/pestañas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario1:test
+    <t>1- Estar deslogueado o no poseer una cuenta de usuario en el sistema.</t>
+  </si>
+  <si>
+    <t>2- Ingresar a la pantalla de registro en dos ventanas/pestañas.</t>
+  </si>
+  <si>
+    <t>3- Ingresar mismos datos requeridos en dos ventanas/pestañas.</t>
+  </si>
+  <si>
+    <t>4- Presionar botón registrarse en dos ventanas/pestañas.</t>
+  </si>
+  <si>
+    <t>En el sistema ya existe la cuenta de usario con los siguientes datos: Usuario1:test
 Nombre1:test
 Apellido1:uno
 Correo1:test@microblogg.com
-Contraseña1:1234
--------------------------------
+Contraseña1:1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se completa el formulario con los siguientes datos:
 Usuario2:test
 Nombre2:test
 Apellido2:uno
@@ -183,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,11 +224,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -243,17 +272,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,62 +621,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -656,7 +700,7 @@
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -674,7 +718,7 @@
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -686,120 +730,137 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
